--- a/PythonResources/Data/Consumption/Sympheny/post_1569_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1569_hea.xlsx
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>8.212641795095282</v>
+        <v>8.21264179509528</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>7.870100365107901</v>
+        <v>7.8701003651079</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>7.498984508851039</v>
+        <v>7.498984508851038</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>8.022321462588604</v>
+        <v>8.022321462588602</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>8.057431373020233</v>
+        <v>8.057431373020231</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>13.93995326103076</v>
+        <v>13.93995326103075</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>15.44803821177431</v>
+        <v>15.4480382117743</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>18.27482560807845</v>
+        <v>18.27482560807844</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>8.128061493337617</v>
+        <v>8.128061493337615</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>16.51971107884725</v>
+        <v>16.51971107884724</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>25.02346033664485</v>
+        <v>25.02346033664484</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>24.98272346227092</v>
+        <v>24.98272346227091</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>34.2620559167819</v>
+        <v>34.26205591678189</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>33.73482111823014</v>
+        <v>33.73482111823013</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>9.973793587722904</v>
+        <v>9.973793587722902</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>6.030258998599707</v>
+        <v>6.030258998599706</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>3.123228751910091</v>
+        <v>3.12322875191009</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>41.416213041544</v>
+        <v>41.41621304154399</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>41.13076184988785</v>
+        <v>41.13076184988784</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>44.05268010534146</v>
+        <v>44.05268010534145</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>44.77392793148703</v>
+        <v>44.77392793148702</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>10.51374766935257</v>
+        <v>10.51374766935256</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>63.37426754220663</v>
+        <v>63.37426754220662</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>50.16467661662382</v>
+        <v>50.16467661662381</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>44.445102226109</v>
+        <v>44.44510222610899</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>49.26817230935876</v>
+        <v>49.26817230935875</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>45.43363083951372</v>
+        <v>45.43363083951371</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>7.249756897573431</v>
+        <v>7.24975689757343</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>31.57635291848933</v>
+        <v>31.57635291848932</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>7.757707621781275</v>
+        <v>7.757707621781274</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>55.07127194589206</v>
+        <v>55.07127194589205</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>40.35353745535796</v>
+        <v>40.35353745535795</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>498</v>
       </c>
       <c r="B498">
-        <v>48.12167840611558</v>
+        <v>48.12167840611557</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>56.29689502957381</v>
+        <v>56.2968950295738</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>517</v>
       </c>
       <c r="B517">
-        <v>47.60411495183964</v>
+        <v>47.60411495183963</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>538</v>
       </c>
       <c r="B538">
-        <v>56.9671484949923</v>
+        <v>56.96714849499229</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>541</v>
       </c>
       <c r="B541">
-        <v>50.9366257324578</v>
+        <v>50.93662573245779</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>51.42312365663563</v>
+        <v>51.42312365663562</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>67.319296793627</v>
+        <v>67.31929679362699</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>619</v>
       </c>
       <c r="B619">
-        <v>21.45461707045018</v>
+        <v>21.45461707045017</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>635</v>
       </c>
       <c r="B635">
-        <v>48.34324011134356</v>
+        <v>48.34324011134355</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>645</v>
       </c>
       <c r="B645">
-        <v>51.67780238923234</v>
+        <v>51.67780238923233</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>52.7176184344028</v>
+        <v>52.71761843440279</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>656</v>
       </c>
       <c r="B656">
-        <v>67.85708214957057</v>
+        <v>67.85708214957056</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>658</v>
       </c>
       <c r="B658">
-        <v>55.53520340009297</v>
+        <v>55.53520340009296</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>52.03740055366981</v>
+        <v>52.0374005536698</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>674</v>
       </c>
       <c r="B674">
-        <v>19.81476738072449</v>
+        <v>19.81476738072448</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>55.5683204274617</v>
+        <v>55.56832042746169</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>32.07134990278834</v>
+        <v>32.07134990278833</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>718</v>
       </c>
       <c r="B718">
-        <v>42.06565846321754</v>
+        <v>42.06565846321753</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>733</v>
       </c>
       <c r="B733">
-        <v>27.89086737890745</v>
+        <v>27.89086737890744</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>41.94872311879166</v>
+        <v>41.94872311879165</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>745</v>
       </c>
       <c r="B745">
-        <v>9.466692769527178</v>
+        <v>9.466692769527176</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>761</v>
       </c>
       <c r="B761">
-        <v>31.99427221962041</v>
+        <v>31.9942722196204</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>4.061730139015317</v>
+        <v>4.061730139015316</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>45.19682944027535</v>
+        <v>45.19682944027534</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>789</v>
       </c>
       <c r="B789">
-        <v>43.4466091973898</v>
+        <v>43.44660919738979</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>6.196781962767084</v>
+        <v>6.196781962767083</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>803</v>
       </c>
       <c r="B803">
-        <v>50.18489851829145</v>
+        <v>50.18489851829144</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>48.13691810012597</v>
+        <v>48.13691810012596</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>824</v>
       </c>
       <c r="B824">
-        <v>67.44385198505807</v>
+        <v>67.44385198505806</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>838</v>
       </c>
       <c r="B838">
-        <v>60.43681652170397</v>
+        <v>60.43681652170396</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>845</v>
       </c>
       <c r="B845">
-        <v>75.82626983284987</v>
+        <v>75.82626983284986</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7143,7 +7143,7 @@
         <v>850</v>
       </c>
       <c r="B850">
-        <v>54.47252781390693</v>
+        <v>54.47252781390692</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>44.26427739525495</v>
+        <v>44.26427739525494</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>29.08064787456091</v>
+        <v>29.0806478745609</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>14.25740781010873</v>
+        <v>14.25740781010872</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>56.89065695390169</v>
+        <v>56.89065695390168</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7527,7 +7527,7 @@
         <v>898</v>
       </c>
       <c r="B898">
-        <v>39.03149399995663</v>
+        <v>39.03149399995662</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>24.65589063995579</v>
+        <v>24.65589063995578</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>924</v>
       </c>
       <c r="B924">
-        <v>19.47501012560439</v>
+        <v>19.47501012560438</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>949</v>
       </c>
       <c r="B949">
-        <v>8.545804951845499</v>
+        <v>8.545804951845497</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>951</v>
       </c>
       <c r="B951">
-        <v>8.805788270241978</v>
+        <v>8.805788270241976</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>968</v>
       </c>
       <c r="B968">
-        <v>23.91831875695678</v>
+        <v>23.91831875695677</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>8.224071565603074</v>
+        <v>8.224071565603072</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>6.44943850519703</v>
+        <v>6.449438505197029</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>1018</v>
       </c>
       <c r="B1018">
-        <v>30.88851519075115</v>
+        <v>30.88851519075114</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>24.78961895489696</v>
+        <v>24.78961895489695</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>1026</v>
       </c>
       <c r="B1026">
-        <v>28.48336909776909</v>
+        <v>28.48336909776908</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>1030</v>
       </c>
       <c r="B1030">
-        <v>35.23798247552418</v>
+        <v>35.23798247552417</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>34.48654833239649</v>
+        <v>34.48654833239648</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>1065</v>
       </c>
       <c r="B1065">
-        <v>15.35616044115398</v>
+        <v>15.35616044115397</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>28.52182001804146</v>
+        <v>28.52182001804145</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>35.85431086982899</v>
+        <v>35.85431086982898</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9575,7 +9575,7 @@
         <v>1154</v>
       </c>
       <c r="B1154">
-        <v>3.621215060803449</v>
+        <v>3.621215060803448</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9607,7 +9607,7 @@
         <v>1158</v>
       </c>
       <c r="B1158">
-        <v>8.905520344698434</v>
+        <v>8.905520344698433</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9615,7 +9615,7 @@
         <v>1159</v>
       </c>
       <c r="B1159">
-        <v>8.946989896669015</v>
+        <v>8.946989896669013</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>38.46059161664433</v>
+        <v>38.46059161664432</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>30.82228113601369</v>
+        <v>30.82228113601368</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>25.69002110697621</v>
+        <v>25.6900211069762</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>8.885151907511471</v>
+        <v>8.885151907511469</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10383,7 +10383,7 @@
         <v>1255</v>
       </c>
       <c r="B1255">
-        <v>5.857347085789513</v>
+        <v>5.857347085789512</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
@@ -10479,7 +10479,7 @@
         <v>1267</v>
       </c>
       <c r="B1267">
-        <v>0.5037041248576408</v>
+        <v>0.5037041248576407</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>8.689028768439298</v>
+        <v>8.689028768439297</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>1304</v>
       </c>
       <c r="B1304">
-        <v>1.489395810608117</v>
+        <v>1.489395810608116</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>39.47989268910849</v>
+        <v>39.47989268910848</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>22.99083684090522</v>
+        <v>22.99083684090521</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -11983,7 +11983,7 @@
         <v>1455</v>
       </c>
       <c r="B1455">
-        <v>23.96799429800988</v>
+        <v>23.96799429800987</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1467</v>
       </c>
       <c r="B1467">
-        <v>5.254118966912866</v>
+        <v>5.254118966912865</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>28.19126519353533</v>
+        <v>28.19126519353532</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>5.490978980358966</v>
+        <v>5.490978980358965</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12679,7 +12679,7 @@
         <v>1542</v>
       </c>
       <c r="B1542">
-        <v>43.43869627934594</v>
+        <v>43.43869627934593</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12735,7 +12735,7 @@
         <v>1549</v>
       </c>
       <c r="B1549">
-        <v>8.313985760264375</v>
+        <v>8.313985760264373</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>5.465188728956767</v>
+        <v>5.465188728956766</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13095,7 +13095,7 @@
         <v>1594</v>
       </c>
       <c r="B1594">
-        <v>19.51020795734762</v>
+        <v>19.51020795734761</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13167,7 +13167,7 @@
         <v>1603</v>
       </c>
       <c r="B1603">
-        <v>28.76797038341312</v>
+        <v>28.76797038341311</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>35.45192433374696</v>
+        <v>35.45192433374695</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>33.16655637426579</v>
+        <v>33.16655637426578</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>37.38824468618247</v>
+        <v>37.38824468618246</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>9.299202670932219</v>
+        <v>9.299202670932218</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13495,7 +13495,7 @@
         <v>1644</v>
       </c>
       <c r="B1644">
-        <v>28.72280813635541</v>
+        <v>28.7228081363554</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>23.97678642916972</v>
+        <v>23.97678642916971</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13719,7 +13719,7 @@
         <v>1672</v>
       </c>
       <c r="B1672">
-        <v>9.496175716016509</v>
+        <v>9.496175716016507</v>
       </c>
     </row>
     <row r="1673" spans="1:2">
@@ -13919,7 +13919,7 @@
         <v>1697</v>
       </c>
       <c r="B1697">
-        <v>5.980378307819547</v>
+        <v>5.980378307819546</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -14015,7 +14015,7 @@
         <v>1709</v>
       </c>
       <c r="B1709">
-        <v>31.20180813108013</v>
+        <v>31.20180813108012</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14199,7 +14199,7 @@
         <v>1732</v>
       </c>
       <c r="B1732">
-        <v>30.27951357241288</v>
+        <v>30.27951357241287</v>
       </c>
     </row>
     <row r="1733" spans="1:2">
@@ -14311,7 +14311,7 @@
         <v>1746</v>
       </c>
       <c r="B1746">
-        <v>14.77127856929753</v>
+        <v>14.77127856929752</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>39.48223725741778</v>
+        <v>39.48223725741777</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14439,7 +14439,7 @@
         <v>1762</v>
       </c>
       <c r="B1762">
-        <v>19.73440730192355</v>
+        <v>19.73440730192354</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
@@ -14871,7 +14871,7 @@
         <v>1816</v>
       </c>
       <c r="B1816">
-        <v>13.17562399220197</v>
+        <v>13.17562399220196</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
@@ -15191,7 +15191,7 @@
         <v>1856</v>
       </c>
       <c r="B1856">
-        <v>18.08034366682278</v>
+        <v>18.08034366682277</v>
       </c>
     </row>
     <row r="1857" spans="1:2">
@@ -15207,7 +15207,7 @@
         <v>1858</v>
       </c>
       <c r="B1858">
-        <v>8.777712064738221</v>
+        <v>8.777712064738219</v>
       </c>
     </row>
     <row r="1859" spans="1:2">
@@ -15383,7 +15383,7 @@
         <v>1880</v>
       </c>
       <c r="B1880">
-        <v>14.18756898159573</v>
+        <v>14.18756898159572</v>
       </c>
     </row>
     <row r="1881" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>6.104288742965563</v>
+        <v>6.104288742965562</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>7.293424482333972</v>
+        <v>7.293424482333971</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15679,7 +15679,7 @@
         <v>1917</v>
       </c>
       <c r="B1917">
-        <v>14.74976715505979</v>
+        <v>14.74976715505978</v>
       </c>
     </row>
     <row r="1918" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>5.996936821503913</v>
+        <v>5.996936821503912</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -15943,7 +15943,7 @@
         <v>1950</v>
       </c>
       <c r="B1950">
-        <v>21.62893572424595</v>
+        <v>21.62893572424594</v>
       </c>
     </row>
     <row r="1951" spans="1:2">
@@ -16639,7 +16639,7 @@
         <v>2037</v>
       </c>
       <c r="B2037">
-        <v>14.78440815182956</v>
+        <v>14.78440815182955</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -16887,7 +16887,7 @@
         <v>2068</v>
       </c>
       <c r="B2068">
-        <v>22.746122523623</v>
+        <v>22.74612252362299</v>
       </c>
     </row>
     <row r="2069" spans="1:2">
@@ -16991,7 +16991,7 @@
         <v>2081</v>
       </c>
       <c r="B2081">
-        <v>0.6942706370367939</v>
+        <v>0.6942706370367938</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -17015,7 +17015,7 @@
         <v>2084</v>
       </c>
       <c r="B2084">
-        <v>5.370204405326626</v>
+        <v>5.370204405326625</v>
       </c>
     </row>
     <row r="2085" spans="1:2">
@@ -17103,7 +17103,7 @@
         <v>2095</v>
       </c>
       <c r="B2095">
-        <v>10.50366602562262</v>
+        <v>10.50366602562261</v>
       </c>
     </row>
     <row r="2096" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>3.453490505377561</v>
+        <v>3.45349050537756</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>13.00162771654873</v>
+        <v>13.00162771654872</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18239,7 +18239,7 @@
         <v>2237</v>
       </c>
       <c r="B2237">
-        <v>7.661316557165558</v>
+        <v>7.661316557165557</v>
       </c>
     </row>
     <row r="2238" spans="1:2">
@@ -19271,7 +19271,7 @@
         <v>2366</v>
       </c>
       <c r="B2366">
-        <v>5.401621620671121</v>
+        <v>5.40162162067112</v>
       </c>
     </row>
     <row r="2367" spans="1:2">
@@ -19319,7 +19319,7 @@
         <v>2372</v>
       </c>
       <c r="B2372">
-        <v>18.86234511928285</v>
+        <v>18.86234511928284</v>
       </c>
     </row>
     <row r="2373" spans="1:2">
@@ -19327,7 +19327,7 @@
         <v>2373</v>
       </c>
       <c r="B2373">
-        <v>22.0339012854682</v>
+        <v>22.03390128546819</v>
       </c>
     </row>
     <row r="2374" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>37.34223253311264</v>
+        <v>37.34223253311263</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>4.672959097247419</v>
+        <v>4.672959097247418</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>5.304175500316224</v>
+        <v>5.304175500316223</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>4.241353378610856</v>
+        <v>4.241353378610855</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>5.795479789528104</v>
+        <v>5.795479789528103</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>25.75971339996988</v>
+        <v>25.75971339996987</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20559,7 +20559,7 @@
         <v>2527</v>
       </c>
       <c r="B2527">
-        <v>13.3466895574686</v>
+        <v>13.34668955746859</v>
       </c>
     </row>
     <row r="2528" spans="1:2">
@@ -20839,7 +20839,7 @@
         <v>2562</v>
       </c>
       <c r="B2562">
-        <v>5.15476788480667</v>
+        <v>5.154767884806669</v>
       </c>
     </row>
     <row r="2563" spans="1:2">
@@ -20927,7 +20927,7 @@
         <v>2573</v>
       </c>
       <c r="B2573">
-        <v>26.6416227695096</v>
+        <v>26.64162276950959</v>
       </c>
     </row>
     <row r="2574" spans="1:2">
@@ -20991,7 +20991,7 @@
         <v>2581</v>
       </c>
       <c r="B2581">
-        <v>9.827228761288366</v>
+        <v>9.827228761288364</v>
       </c>
     </row>
     <row r="2582" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>8.849074862652259</v>
+        <v>8.849074862652257</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21007,7 +21007,7 @@
         <v>2583</v>
       </c>
       <c r="B2583">
-        <v>4.713402900582684</v>
+        <v>4.713402900582683</v>
       </c>
     </row>
     <row r="2584" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>22.78568711384228</v>
+        <v>22.78568711384227</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>14.71914123151968</v>
+        <v>14.71914123151967</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21143,7 +21143,7 @@
         <v>2600</v>
       </c>
       <c r="B2600">
-        <v>6.834826921036699</v>
+        <v>6.834826921036698</v>
       </c>
     </row>
     <row r="2601" spans="1:2">
@@ -21583,7 +21583,7 @@
         <v>2655</v>
       </c>
       <c r="B2655">
-        <v>5.137828378772045</v>
+        <v>5.137828378772044</v>
       </c>
     </row>
     <row r="2656" spans="1:2">
@@ -21895,7 +21895,7 @@
         <v>2694</v>
       </c>
       <c r="B2694">
-        <v>13.83547343574799</v>
+        <v>13.83547343574798</v>
       </c>
     </row>
     <row r="2695" spans="1:2">
@@ -21927,7 +21927,7 @@
         <v>2698</v>
       </c>
       <c r="B2698">
-        <v>3.321315466941294</v>
+        <v>3.321315466941293</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>4.185025124980145</v>
+        <v>4.185025124980144</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>5.535994691897348</v>
+        <v>5.535994691897347</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>5.611255334625582</v>
+        <v>5.611255334625581</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -21967,7 +21967,7 @@
         <v>2703</v>
       </c>
       <c r="B2703">
-        <v>7.107470908303348</v>
+        <v>7.107470908303347</v>
       </c>
     </row>
     <row r="2704" spans="1:2">
@@ -21983,7 +21983,7 @@
         <v>2705</v>
       </c>
       <c r="B2705">
-        <v>8.829761481204477</v>
+        <v>8.829761481204475</v>
       </c>
     </row>
     <row r="2706" spans="1:2">
@@ -22463,7 +22463,7 @@
         <v>2765</v>
       </c>
       <c r="B2765">
-        <v>5.676639483350928</v>
+        <v>5.676639483350927</v>
       </c>
     </row>
     <row r="2766" spans="1:2">
@@ -22471,7 +22471,7 @@
         <v>2766</v>
       </c>
       <c r="B2766">
-        <v>8.47634711568276</v>
+        <v>8.476347115682758</v>
       </c>
     </row>
     <row r="2767" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>8.699403483207909</v>
+        <v>8.699403483207908</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -23055,7 +23055,7 @@
         <v>2839</v>
       </c>
       <c r="B2839">
-        <v>3.086448336558092</v>
+        <v>3.086448336558091</v>
       </c>
     </row>
     <row r="2840" spans="1:2">
@@ -23431,7 +23431,7 @@
         <v>2886</v>
       </c>
       <c r="B2886">
-        <v>3.568257124117344</v>
+        <v>3.568257124117343</v>
       </c>
     </row>
     <row r="2887" spans="1:2">
@@ -54335,7 +54335,7 @@
         <v>6749</v>
       </c>
       <c r="B6749">
-        <v>25.05663597822131</v>
+        <v>25.0566359782213</v>
       </c>
     </row>
     <row r="6750" spans="1:2">
@@ -54343,7 +54343,7 @@
         <v>6750</v>
       </c>
       <c r="B6750">
-        <v>24.44244700249873</v>
+        <v>24.44244700249872</v>
       </c>
     </row>
     <row r="6751" spans="1:2">
@@ -56255,7 +56255,7 @@
         <v>6989</v>
       </c>
       <c r="B6989">
-        <v>18.63436515830819</v>
+        <v>18.63436515830818</v>
       </c>
     </row>
     <row r="6990" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>6.774307751553131</v>
+        <v>6.77430775155313</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -58015,7 +58015,7 @@
         <v>7209</v>
       </c>
       <c r="B7209">
-        <v>8.519750936508505</v>
+        <v>8.519750936508503</v>
       </c>
     </row>
     <row r="7210" spans="1:2">
@@ -58039,7 +58039,7 @@
         <v>7212</v>
       </c>
       <c r="B7212">
-        <v>1.870918619447843</v>
+        <v>1.870918619447842</v>
       </c>
     </row>
     <row r="7213" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>2.790783619204594</v>
+        <v>2.790783619204593</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>9.060349774423225</v>
+        <v>9.060349774423219</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58191,7 +58191,7 @@
         <v>7231</v>
       </c>
       <c r="B7231">
-        <v>33.77292035325611</v>
+        <v>33.7729203532561</v>
       </c>
     </row>
     <row r="7232" spans="1:2">
@@ -58207,7 +58207,7 @@
         <v>7233</v>
       </c>
       <c r="B7233">
-        <v>8.23805105414722</v>
+        <v>8.238051054147219</v>
       </c>
     </row>
     <row r="7234" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>4.038899905103598</v>
+        <v>4.038899905103597</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58951,7 +58951,7 @@
         <v>7326</v>
       </c>
       <c r="B7326">
-        <v>22.73067767988554</v>
+        <v>22.73067767988553</v>
       </c>
     </row>
     <row r="7327" spans="1:2">
@@ -58967,7 +58967,7 @@
         <v>7328</v>
       </c>
       <c r="B7328">
-        <v>7.309426161044881</v>
+        <v>7.30942616104488</v>
       </c>
     </row>
     <row r="7329" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>10.89799310814146</v>
+        <v>10.89799310814145</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59847,7 +59847,7 @@
         <v>7438</v>
       </c>
       <c r="B7438">
-        <v>25.07339964163274</v>
+        <v>25.07339964163273</v>
       </c>
     </row>
     <row r="7439" spans="1:2">
@@ -59911,7 +59911,7 @@
         <v>7446</v>
       </c>
       <c r="B7446">
-        <v>29.16552124735724</v>
+        <v>29.16552124735723</v>
       </c>
     </row>
     <row r="7447" spans="1:2">
@@ -60023,7 +60023,7 @@
         <v>7460</v>
       </c>
       <c r="B7460">
-        <v>6.477133718350527</v>
+        <v>6.477133718350526</v>
       </c>
     </row>
     <row r="7461" spans="1:2">
@@ -61087,7 +61087,7 @@
         <v>7593</v>
       </c>
       <c r="B7593">
-        <v>5.830413857336536</v>
+        <v>5.830413857336535</v>
       </c>
     </row>
     <row r="7594" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>7.519909781011459</v>
+        <v>7.519909781011458</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61359,7 +61359,7 @@
         <v>7627</v>
       </c>
       <c r="B7627">
-        <v>9.639604682337373</v>
+        <v>9.639604682337369</v>
       </c>
     </row>
     <row r="7628" spans="1:2">
@@ -61743,7 +61743,7 @@
         <v>7675</v>
       </c>
       <c r="B7675">
-        <v>10.3432389390594</v>
+        <v>10.34323893905939</v>
       </c>
     </row>
     <row r="7676" spans="1:2">
@@ -61751,7 +61751,7 @@
         <v>7676</v>
       </c>
       <c r="B7676">
-        <v>8.84831287795174</v>
+        <v>8.848312877951738</v>
       </c>
     </row>
     <row r="7677" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>1.312550884459088</v>
+        <v>1.312550884459087</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -62111,7 +62111,7 @@
         <v>7721</v>
       </c>
       <c r="B7721">
-        <v>19.02549776650562</v>
+        <v>19.02549776650561</v>
       </c>
     </row>
     <row r="7722" spans="1:2">
@@ -62215,7 +62215,7 @@
         <v>7734</v>
       </c>
       <c r="B7734">
-        <v>36.82261758156607</v>
+        <v>36.82261758156606</v>
       </c>
     </row>
     <row r="7735" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>29.34315160388988</v>
+        <v>29.34315160388987</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>44.94977055468384</v>
+        <v>44.94977055468383</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62607,7 +62607,7 @@
         <v>7783</v>
       </c>
       <c r="B7783">
-        <v>42.47595791734342</v>
+        <v>42.47595791734341</v>
       </c>
     </row>
     <row r="7784" spans="1:2">
@@ -62663,7 +62663,7 @@
         <v>7790</v>
       </c>
       <c r="B7790">
-        <v>24.73343723678558</v>
+        <v>24.73343723678557</v>
       </c>
     </row>
     <row r="7791" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>4.982705878008595</v>
+        <v>4.982705878008594</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -63007,7 +63007,7 @@
         <v>7833</v>
       </c>
       <c r="B7833">
-        <v>37.74754977958128</v>
+        <v>37.74754977958127</v>
       </c>
     </row>
     <row r="7834" spans="1:2">
@@ -63103,7 +63103,7 @@
         <v>7845</v>
       </c>
       <c r="B7845">
-        <v>40.92180219932231</v>
+        <v>40.9218021993223</v>
       </c>
     </row>
     <row r="7846" spans="1:2">
@@ -63111,7 +63111,7 @@
         <v>7846</v>
       </c>
       <c r="B7846">
-        <v>45.37003442412421</v>
+        <v>45.3700344241242</v>
       </c>
     </row>
     <row r="7847" spans="1:2">
@@ -63455,7 +63455,7 @@
         <v>7889</v>
       </c>
       <c r="B7889">
-        <v>27.15224044016926</v>
+        <v>27.15224044016925</v>
       </c>
     </row>
     <row r="7890" spans="1:2">
@@ -63583,7 +63583,7 @@
         <v>7905</v>
       </c>
       <c r="B7905">
-        <v>8.031846271345097</v>
+        <v>8.031846271345096</v>
       </c>
     </row>
     <row r="7906" spans="1:2">
@@ -63591,7 +63591,7 @@
         <v>7906</v>
       </c>
       <c r="B7906">
-        <v>5.481835163952732</v>
+        <v>5.481835163952731</v>
       </c>
     </row>
     <row r="7907" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>17.79884893418856</v>
+        <v>17.79884893418855</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -63975,7 +63975,7 @@
         <v>7954</v>
       </c>
       <c r="B7954">
-        <v>9.985223358230696</v>
+        <v>9.985223358230694</v>
       </c>
     </row>
     <row r="7955" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>0.4578297151759804</v>
+        <v>0.4578297151759803</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64023,7 +64023,7 @@
         <v>7960</v>
       </c>
       <c r="B7960">
-        <v>3.433649596060188</v>
+        <v>3.433649596060187</v>
       </c>
     </row>
     <row r="7961" spans="1:2">
@@ -64063,7 +64063,7 @@
         <v>7965</v>
       </c>
       <c r="B7965">
-        <v>15.68747725036063</v>
+        <v>15.68747725036062</v>
       </c>
     </row>
     <row r="7966" spans="1:2">
@@ -64071,7 +64071,7 @@
         <v>7966</v>
       </c>
       <c r="B7966">
-        <v>18.90047366141269</v>
+        <v>18.90047366141268</v>
       </c>
     </row>
     <row r="7967" spans="1:2">
@@ -64143,7 +64143,7 @@
         <v>7975</v>
       </c>
       <c r="B7975">
-        <v>38.76157557334953</v>
+        <v>38.76157557334952</v>
       </c>
     </row>
     <row r="7976" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>24.97384340979948</v>
+        <v>24.97384340979947</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64255,7 +64255,7 @@
         <v>7989</v>
       </c>
       <c r="B7989">
-        <v>19.42310724465747</v>
+        <v>19.42310724465746</v>
       </c>
     </row>
     <row r="7990" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>21.42261371302836</v>
+        <v>21.42261371302835</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>9.370096555184398</v>
+        <v>9.370096555184396</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>6.554680315180319</v>
+        <v>6.554680315180318</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66095,7 +66095,7 @@
         <v>8219</v>
       </c>
       <c r="B8219">
-        <v>2.882271605343506</v>
+        <v>2.882271605343505</v>
       </c>
     </row>
     <row r="8220" spans="1:2">
@@ -66167,7 +66167,7 @@
         <v>8228</v>
       </c>
       <c r="B8228">
-        <v>15.86466800033528</v>
+        <v>15.86466800033527</v>
       </c>
     </row>
     <row r="8229" spans="1:2">
@@ -66183,7 +66183,7 @@
         <v>8230</v>
       </c>
       <c r="B8230">
-        <v>19.79460409326459</v>
+        <v>19.79460409326458</v>
       </c>
     </row>
     <row r="8231" spans="1:2">
@@ -66287,7 +66287,7 @@
         <v>8243</v>
       </c>
       <c r="B8243">
-        <v>11.12354057949523</v>
+        <v>11.12354057949522</v>
       </c>
     </row>
     <row r="8244" spans="1:2">
@@ -66439,7 +66439,7 @@
         <v>8262</v>
       </c>
       <c r="B8262">
-        <v>21.72040319541216</v>
+        <v>21.72040319541215</v>
       </c>
     </row>
     <row r="8263" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>6.106867768105783</v>
+        <v>6.106867768105782</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>20.4843174756502</v>
+        <v>20.48431747565019</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -67031,7 +67031,7 @@
         <v>8336</v>
       </c>
       <c r="B8336">
-        <v>25.5526880182595</v>
+        <v>25.55268801825949</v>
       </c>
     </row>
     <row r="8337" spans="1:2">
@@ -67223,7 +67223,7 @@
         <v>8360</v>
       </c>
       <c r="B8360">
-        <v>45.95588343040824</v>
+        <v>45.95588343040823</v>
       </c>
     </row>
     <row r="8361" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>9.238683501448651</v>
+        <v>9.23868350144865</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>6.236756852440491</v>
+        <v>6.23675685244049</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67639,7 +67639,7 @@
         <v>8412</v>
       </c>
       <c r="B8412">
-        <v>13.14857353533353</v>
+        <v>13.14857353533352</v>
       </c>
     </row>
     <row r="8413" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>14.54573109794376</v>
+        <v>14.54573109794375</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>29.63505035839658</v>
+        <v>29.63505035839657</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -68031,7 +68031,7 @@
         <v>8461</v>
       </c>
       <c r="B8461">
-        <v>5.600792698545372</v>
+        <v>5.600792698545371</v>
       </c>
     </row>
     <row r="8462" spans="1:2">
@@ -68079,7 +68079,7 @@
         <v>8467</v>
       </c>
       <c r="B8467">
-        <v>6.807424778921863</v>
+        <v>6.807424778921862</v>
       </c>
     </row>
     <row r="8468" spans="1:2">
@@ -68607,7 +68607,7 @@
         <v>8533</v>
       </c>
       <c r="B8533">
-        <v>7.20245523193349</v>
+        <v>7.202455231933489</v>
       </c>
     </row>
     <row r="8534" spans="1:2">
@@ -68647,7 +68647,7 @@
         <v>8538</v>
       </c>
       <c r="B8538">
-        <v>20.86947143465894</v>
+        <v>20.86947143465893</v>
       </c>
     </row>
     <row r="8539" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>32.7108309091474</v>
+        <v>32.71083090914739</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>43.16350257404294</v>
+        <v>43.16350257404293</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>37.07729631416278</v>
+        <v>37.07729631416277</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69511,7 +69511,7 @@
         <v>8646</v>
       </c>
       <c r="B8646">
-        <v>56.81416541281108</v>
+        <v>56.81416541281107</v>
       </c>
     </row>
     <row r="8647" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>51.50987268407939</v>
+        <v>51.50987268407938</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69559,7 +69559,7 @@
         <v>8652</v>
       </c>
       <c r="B8652">
-        <v>22.0866833795311</v>
+        <v>22.08668337953109</v>
       </c>
     </row>
     <row r="8653" spans="1:2">
@@ -69743,7 +69743,7 @@
         <v>8675</v>
       </c>
       <c r="B8675">
-        <v>23.95864533187658</v>
+        <v>23.95864533187657</v>
       </c>
     </row>
     <row r="8676" spans="1:2">
@@ -69807,7 +69807,7 @@
         <v>8683</v>
       </c>
       <c r="B8683">
-        <v>21.42642363653096</v>
+        <v>21.42642363653095</v>
       </c>
     </row>
     <row r="8684" spans="1:2">
@@ -69951,7 +69951,7 @@
         <v>8701</v>
       </c>
       <c r="B8701">
-        <v>25.65288900637782</v>
+        <v>25.65288900637781</v>
       </c>
     </row>
     <row r="8702" spans="1:2">
@@ -69999,7 +69999,7 @@
         <v>8707</v>
       </c>
       <c r="B8707">
-        <v>25.32426845072685</v>
+        <v>25.32426845072684</v>
       </c>
     </row>
     <row r="8708" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>45.70384233715948</v>
+        <v>45.70384233715947</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70327,7 +70327,7 @@
         <v>8748</v>
       </c>
       <c r="B8748">
-        <v>43.92783184287173</v>
+        <v>43.92783184287172</v>
       </c>
     </row>
     <row r="8749" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>43.11778349201177</v>
+        <v>43.11778349201176</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>40.92180219932231</v>
+        <v>40.9218021993223</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
